--- a/reports/reposeguridad.xlsx
+++ b/reports/reposeguridad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>INSPECCIÓN PLANEADA DE SEGURIDAD</t>
   </si>
@@ -89,16 +89,10 @@
     <t xml:space="preserve">Estación de emergencia </t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634577255a910804f-aa3e-40fa-b09d-f8a58d0c96c36693522829570414600_out.jpg</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>PRUEBA ANDROID</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634577257a0f63f99-0402-4f6c-b782-391ab3b8f093249386852269538245_out.jpg</t>
   </si>
   <si>
     <t>C</t>
@@ -113,13 +107,7 @@
     <t xml:space="preserve">Instalaciones eléctricas </t>
   </si>
   <si>
-    <t>Deficiencia en el aislamiento y bloqueo</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634572305.pdf</t>
-  </si>
-  <si>
-    <t>prueba 1024</t>
+    <t>Utilizar equipos / herramientas defectuosos</t>
   </si>
   <si>
     <t>prueba 1007</t>
@@ -128,19 +116,16 @@
     <t>PRUEBA</t>
   </si>
   <si>
-    <t>Utilizar equipos / herramientas defectuosos</t>
+    <t>Deficiencia en el aislamiento y bloqueo</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/5.-MatrizdeMetasMensualesenSSMA-OCT2021.pdf</t>
+    <t>prueba 1024</t>
   </si>
   <si>
     <t>Estación éste</t>
   </si>
   <si>
     <t>Inutilizar / retirar dispositivos o controles de seguridad</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/5.- Matriz de Metas Mensuales en SSMA - OCT 2021.pdf</t>
   </si>
   <si>
     <t>Ventilación inadecuada</t>
@@ -167,9 +152,6 @@
     <t>Levantamiento incorrecto de equipos, materiales o herramientas</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/download.png</t>
-  </si>
-  <si>
     <t>PRUEBA 1038</t>
   </si>
   <si>
@@ -179,16 +161,7 @@
     <t xml:space="preserve">Sistemas contra incendio </t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/images (1).png</t>
-  </si>
-  <si>
     <t>PRUEBA 1029</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/circulo-brillante-iluminacion-purpura-aislado-sobre-fondo-oscuro_1441-2396.jpg</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/images.png</t>
   </si>
   <si>
     <t>prueba 1008</t>
@@ -212,9 +185,6 @@
     <t>Uso incorrecto de equipos / materiales</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/cronogramaFacultad20.pdf</t>
-  </si>
-  <si>
     <t>LIMA</t>
   </si>
   <si>
@@ -227,9 +197,6 @@
     <t>Área congestionada - accionar restringido</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/pc_6161cda4eb51b.pdf</t>
-  </si>
-  <si>
     <t>pruea</t>
   </si>
   <si>
@@ -240,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">prueba de condición </t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/16340601011b0366e5-ea3f-4901-a200-efc8ca5062fd1103817483847564284_out.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">acción correctiva </t>
@@ -263,9 +227,6 @@
     <t xml:space="preserve">prueba </t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634059955Casual-Social-media-2_1.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">prueba de acción correctiva </t>
   </si>
   <si>
@@ -281,19 +242,10 @@
     <t>Inspección del sub comité</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634058529e4a4d430-43d1-438b-9e99-1ad80d052e6a.pdf</t>
-  </si>
-  <si>
     <t>PRUEBA.</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634058529fbd03b64-4b4f-475e-bdbd-3e99f89c53473171361046319050863_out.jpg</t>
-  </si>
-  <si>
     <t>Oficinas</t>
-  </si>
-  <si>
-    <t>http://localhost/ssmaprueba/public/photos/1634057163advanced_analytics_-_noviembre_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">PRUEBA </t>
@@ -308,16 +260,52 @@
     <t>07/10/2021</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/Matricula (1).pdf</t>
-  </si>
-  <si>
     <t>Acerca del EPP (detallar)</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/ReporteAlumnoPreMatricula (4).pdf</t>
+    <t>20/09/2021</t>
   </si>
   <si>
-    <t>http://localhost/ssmaprueba/public/photos/constanciamovimientos.pdf</t>
+    <t>PUCALLPA</t>
+  </si>
+  <si>
+    <t>Almacén de productos químicos</t>
+  </si>
+  <si>
+    <t>Advertencia - Señalética faltante / incorrecta</t>
+  </si>
+  <si>
+    <t>18/09/2021</t>
+  </si>
+  <si>
+    <t>Exposición a ruido</t>
+  </si>
+  <si>
+    <t>Desorden / Desaseo</t>
+  </si>
+  <si>
+    <t>Operar equipos a velocidad incorrecta</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaNo consignada </t>
+  </si>
+  <si>
+    <t>26/09/2021</t>
+  </si>
+  <si>
+    <t>Posición inadecuada para la tarea</t>
+  </si>
+  <si>
+    <t>Its possible to reference the class using a variable. The variable's value can not be a keyword (e.g. self, parent and static). Note that class constants are allocated once per class, and not for each class instance.</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>25/09/2021</t>
   </si>
 </sst>
 </file>
@@ -397,6 +385,671 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="1634577255a910804f-aa3e-40fa-b09d-f8a58d0c96c36693522829570414600_out.jpg" descr="http://localhost/ssma/public/photos/1634577255a910804f-aa3e-40fa-b09d-f8a58d0c96c36693522829570414600_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1634577257a0f63f99-0402-4f6c-b782-391ab3b8f093249386852269538245_out.jpg" descr="http://localhost/ssma/public/photos/1634577257a0f63f99-0402-4f6c-b782-391ab3b8f093249386852269538245_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="download.png" descr="http://localhost/ssma/public/photos/download.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="images (1).png" descr="http://localhost/ssma/public/photos/images (1).png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="images.png" descr="http://localhost/ssma/public/photos/images.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638175" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="circulo-brillante-iluminacion-purpura-aislado-sobre-fondo-oscuro_1441-2396.jpg" descr="http://localhost/ssma/public/photos/circulo-brillante-iluminacion-purpura-aislado-sobre-fondo-oscuro_1441-2396.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="16340601011b0366e5-ea3f-4901-a200-efc8ca5062fd1103817483847564284_out.jpg" descr="http://localhost/ssma/public/photos/16340601011b0366e5-ea3f-4901-a200-efc8ca5062fd1103817483847564284_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="1634058529fbd03b64-4b4f-475e-bdbd-3e99f89c53473171361046319050863_out.jpg" descr="http://localhost/ssma/public/photos/1634058529fbd03b64-4b4f-475e-bdbd-3e99f89c53473171361046319050863_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="fuente.png" descr="http://localhost/ssma/public/photos/fuente.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="diagrama.png" descr="http://localhost/ssma/public/photos/diagrama.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="peligro.png" descr="http://localhost/ssma/public/photos/peligro.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="diagrama.png" descr="http://localhost/ssma/public/photos/diagrama.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="situacion.png" descr="http://localhost/ssma/public/photos/situacion.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="acto.png" descr="http://localhost/ssma/public/photos/acto.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,9 +1448,9 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" customHeight="1" ht="200">
       <c r="A6" s="4">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -820,14 +1473,12 @@
       <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>20</v>
@@ -837,7 +1488,7 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>21</v>
@@ -853,9 +1504,9 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" customHeight="1" ht="200">
       <c r="A7" s="4">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -878,14 +1529,12 @@
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>20</v>
@@ -895,7 +1544,7 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>21</v>
@@ -913,16 +1562,16 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="4">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -931,29 +1580,27 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>21</v>
@@ -971,16 +1618,16 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="4">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
@@ -989,29 +1636,27 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>21</v>
@@ -1029,16 +1674,16 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
@@ -1047,19 +1692,17 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>34</v>
@@ -1069,7 +1712,7 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>21</v>
@@ -1087,7 +1730,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1096,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -1108,26 +1751,24 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>21</v>
@@ -1143,18 +1784,18 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" customHeight="1" ht="200">
       <c r="A12" s="4">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -1163,29 +1804,27 @@
         <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>21</v>
@@ -1201,9 +1840,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" customHeight="1" ht="200">
       <c r="A13" s="4">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -1212,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -1221,29 +1860,27 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>21</v>
@@ -1259,9 +1896,9 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" customHeight="1" ht="200">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -1270,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -1279,27 +1916,25 @@
         <v>22</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>21</v>
@@ -1315,9 +1950,9 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" customHeight="1" ht="200">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -1326,7 +1961,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1335,27 +1970,25 @@
         <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>21</v>
@@ -1373,50 +2006,48 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="4">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1431,50 +2062,48 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="4">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1487,52 +2116,50 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" customHeight="1" ht="200">
       <c r="A18" s="4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1547,50 +2174,48 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="4">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1603,52 +2228,50 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" customHeight="1" ht="200">
       <c r="A20" s="4">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1663,50 +2286,48 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="4">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1721,50 +2342,48 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="4">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1779,50 +2398,48 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1837,50 +2454,48 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1895,50 +2510,48 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="4">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -1953,50 +2566,48 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -2009,23 +2620,51 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+    <row r="27" spans="1:26" customHeight="1" ht="200">
+      <c r="A27" s="4">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -2037,23 +2676,49 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+    <row r="28" spans="1:26" customHeight="1" ht="200">
+      <c r="A28" s="4">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -2065,23 +2730,49 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+    <row r="29" spans="1:26" customHeight="1" ht="200">
+      <c r="A29" s="4">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -2094,22 +2785,48 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="4">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -2121,23 +2838,49 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+    <row r="31" spans="1:26" customHeight="1" ht="200">
+      <c r="A31" s="4">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
@@ -2149,23 +2892,49 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+    <row r="32" spans="1:26" customHeight="1" ht="200">
+      <c r="A32" s="4">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="P32" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -2177,23 +2946,49 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+    <row r="33" spans="1:26" customHeight="1" ht="200">
+      <c r="A33" s="4">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -2206,22 +3001,50 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="A34" s="4">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -2234,22 +3057,50 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="A35" s="4">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -2262,22 +3113,50 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -2290,22 +3169,50 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="A37" s="4">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -2318,22 +3225,50 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="A38" s="4">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="O38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
@@ -2346,22 +3281,48 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="4">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="P39" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -2373,23 +3334,49 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+    <row r="40" spans="1:26" customHeight="1" ht="200">
+      <c r="A40" s="4">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="P40" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -2401,23 +3388,51 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+    <row r="41" spans="1:26" customHeight="1" ht="200">
+      <c r="A41" s="4">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -2429,23 +3444,51 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+    <row r="42" spans="1:26" customHeight="1" ht="200">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="O42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -2457,23 +3500,49 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+    <row r="43" spans="1:26" customHeight="1" ht="200">
+      <c r="A43" s="4">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="P43" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -2485,23 +3554,49 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+    <row r="44" spans="1:26" customHeight="1" ht="200">
+      <c r="A44" s="4">
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="P44" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
@@ -2513,23 +3608,49 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+    <row r="45" spans="1:26" customHeight="1" ht="200">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="P45" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
@@ -2541,23 +3662,49 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+    <row r="46" spans="1:26" customHeight="1" ht="200">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
+      <c r="P46" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
@@ -2569,23 +3716,49 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+    <row r="47" spans="1:26" customHeight="1" ht="200">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="P47" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
@@ -57286,29 +58459,6 @@
   <mergeCells>
     <mergeCell ref="A3:N3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I6" r:id="rId_hyperlink_1"/>
-    <hyperlink ref="I7" r:id="rId_hyperlink_2"/>
-    <hyperlink ref="I8" r:id="rId_hyperlink_3"/>
-    <hyperlink ref="I9" r:id="rId_hyperlink_4"/>
-    <hyperlink ref="I10" r:id="rId_hyperlink_5"/>
-    <hyperlink ref="I11" r:id="rId_hyperlink_6"/>
-    <hyperlink ref="I12" r:id="rId_hyperlink_7"/>
-    <hyperlink ref="I13" r:id="rId_hyperlink_8"/>
-    <hyperlink ref="I14" r:id="rId_hyperlink_9"/>
-    <hyperlink ref="I15" r:id="rId_hyperlink_10"/>
-    <hyperlink ref="I16" r:id="rId_hyperlink_11"/>
-    <hyperlink ref="I17" r:id="rId_hyperlink_12"/>
-    <hyperlink ref="I18" r:id="rId_hyperlink_13"/>
-    <hyperlink ref="I19" r:id="rId_hyperlink_14"/>
-    <hyperlink ref="I20" r:id="rId_hyperlink_15"/>
-    <hyperlink ref="I21" r:id="rId_hyperlink_16"/>
-    <hyperlink ref="I22" r:id="rId_hyperlink_17"/>
-    <hyperlink ref="I23" r:id="rId_hyperlink_18"/>
-    <hyperlink ref="I24" r:id="rId_hyperlink_19"/>
-    <hyperlink ref="I25" r:id="rId_hyperlink_20"/>
-    <hyperlink ref="I26" r:id="rId_hyperlink_21"/>
-  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
@@ -57320,5 +58470,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>